--- a/MMORPG-Demo/MMOServer/src/main/resources/static/buff.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/buff.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D1CA42-2E8B-4FF6-A508-1A7B707A3614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0C2651-6CE6-4B7C-A364-19D83B439FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +62,20 @@
   </si>
   <si>
     <t>hpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +93,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -96,14 +124,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{93DA00C0-1697-43FA-9EE0-27DEB81845E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -392,10 +430,12 @@
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -470,6 +510,116 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="2">
         <v>2000</v>
       </c>
     </row>
